--- a/plan of approach/Planning.xlsx
+++ b/plan of approach/Planning.xlsx
@@ -1267,6 +1267,9 @@
     <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1274,9 +1277,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1583,7 +1583,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1888,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1938,23 +1938,23 @@
       <c r="B3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="84">
+      <c r="D3" s="83"/>
+      <c r="E3" s="81">
         <v>44805</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:169" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -2193,12 +2193,12 @@
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="I5" s="57">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44802</v>
@@ -3694,7 +3694,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="16">
         <f>AVERAGE(D9:D13)</f>
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="E8" s="60">
         <f>E9</f>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C9" s="72"/>
       <c r="D9" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E9" s="62">
         <f>Project_Start</f>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="C10" s="72"/>
       <c r="D10" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E10" s="62">
         <f>F9</f>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="17">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E11" s="62">
         <f>F10</f>
@@ -8302,6 +8302,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -8309,26 +8329,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="14">

--- a/plan of approach/Planning.xlsx
+++ b/plan of approach/Planning.xlsx
@@ -1267,9 +1267,6 @@
     <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1277,6 +1274,9 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1583,7 +1583,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1888,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1938,23 +1938,23 @@
       <c r="B3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="81">
+      <c r="D3" s="82"/>
+      <c r="E3" s="84">
         <v>44805</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:169" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -2193,12 +2193,12 @@
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="I5" s="57">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44802</v>
@@ -3694,7 +3694,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="16">
         <f>AVERAGE(D9:D13)</f>
-        <v>0.45</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="E8" s="60">
         <f>E9</f>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="17">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E11" s="62">
         <f>F10</f>
@@ -8302,26 +8302,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -8329,6 +8309,26 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="14">

--- a/plan of approach/Planning.xlsx
+++ b/plan of approach/Planning.xlsx
@@ -1267,6 +1267,9 @@
     <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1274,9 +1277,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1583,7 +1583,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,8 +1887,8 @@
   <dimension ref="A1:FM35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1938,23 +1938,23 @@
       <c r="B3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="84">
+      <c r="D3" s="83"/>
+      <c r="E3" s="81">
         <v>44805</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:169" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -2193,12 +2193,12 @@
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="I5" s="57">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44802</v>
@@ -3694,7 +3694,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="16">
         <f>AVERAGE(D9:D13)</f>
-        <v>0.45999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="E8" s="60">
         <f>E9</f>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="17">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="E11" s="62">
         <f>F10</f>
@@ -8302,6 +8302,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -8309,26 +8329,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="14">

--- a/plan of approach/Planning.xlsx
+++ b/plan of approach/Planning.xlsx
@@ -1267,9 +1267,6 @@
     <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1277,6 +1274,9 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1583,7 +1583,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,8 +1887,8 @@
   <dimension ref="A1:FM35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1938,23 +1938,23 @@
       <c r="B3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="81">
+      <c r="D3" s="82"/>
+      <c r="E3" s="84">
         <v>44805</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:169" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -2193,12 +2193,12 @@
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="I5" s="57">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44802</v>
@@ -3694,7 +3694,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="16">
         <f>AVERAGE(D9:D13)</f>
-        <v>0.45</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="E8" s="60">
         <f>E9</f>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="17">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E11" s="62">
         <f>F10</f>
@@ -8302,26 +8302,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -8329,6 +8309,26 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="14">

--- a/plan of approach/Planning.xlsx
+++ b/plan of approach/Planning.xlsx
@@ -283,10 +283,10 @@
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="167" formatCode="_-&quot;kr&quot;\ * #,##0.00_-;\-&quot;kr&quot;\ * #,##0.00_-;_-&quot;kr&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-&quot;kr&quot;\ * #,##0_-;\-&quot;kr&quot;\ * #,##0_-;_-&quot;kr&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="d"/>
-    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy"/>
-    <numFmt numFmtId="172" formatCode="d/mm/yy;@"/>
-    <numFmt numFmtId="173" formatCode="ddd\,\ d/m/yyyy"/>
+    <numFmt numFmtId="169" formatCode="d"/>
+    <numFmt numFmtId="170" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="172" formatCode="ddd\,\ d/m/yyyy"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -994,7 +994,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" applyFill="0">
@@ -1187,49 +1187,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="171" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="171" fontId="7" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="171" fontId="7" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="171" fontId="7" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
@@ -1244,23 +1244,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="171" fontId="0" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
@@ -1269,6 +1266,9 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1326,187 +1326,7 @@
     <cellStyle name="Waarschuwingstekst" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1753,15 +1573,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Takenlijst" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="41"/>
-      <tableStyleElement type="headerRow" dxfId="40"/>
-      <tableStyleElement type="totalRow" dxfId="39"/>
-      <tableStyleElement type="firstColumn" dxfId="38"/>
-      <tableStyleElement type="lastColumn" dxfId="37"/>
-      <tableStyleElement type="firstRowStripe" dxfId="36"/>
-      <tableStyleElement type="secondRowStripe" dxfId="35"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="34"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="lastColumn" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1875,7 +1695,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,8 +1999,8 @@
   <dimension ref="A1:FM36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2230,23 +2050,23 @@
       <c r="B3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="74">
+      <c r="D3" s="75"/>
+      <c r="E3" s="77">
         <v>44805</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:169" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -2485,12 +2305,12 @@
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
       <c r="I5" s="50">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44802</v>
@@ -3986,7 +3806,7 @@
       <c r="C8" s="41"/>
       <c r="D8" s="13">
         <f>AVERAGE(D9:D13)</f>
-        <v>0.57000000000000006</v>
+        <v>0.67</v>
       </c>
       <c r="E8" s="53">
         <f>E9</f>
@@ -4541,7 +4361,7 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="14">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="55">
         <f>F10</f>
@@ -4909,7 +4729,7 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E13" s="55">
         <f>E10</f>
@@ -7499,7 +7319,7 @@
         <v>44880</v>
       </c>
       <c r="F27" s="64">
-        <f>E27+7</f>
+        <f t="shared" ref="F27:F34" si="129">E27+7</f>
         <v>44887</v>
       </c>
       <c r="G27" s="11"/>
@@ -7683,7 +7503,7 @@
         <v>44888</v>
       </c>
       <c r="F28" s="64">
-        <f>E28+7</f>
+        <f t="shared" si="129"/>
         <v>44895</v>
       </c>
       <c r="G28" s="11"/>
@@ -7867,7 +7687,7 @@
         <v>44896</v>
       </c>
       <c r="F29" s="64">
-        <f>E29+7</f>
+        <f t="shared" si="129"/>
         <v>44903</v>
       </c>
       <c r="G29" s="11"/>
@@ -8047,11 +7867,11 @@
         <v>0</v>
       </c>
       <c r="E30" s="64">
-        <f t="shared" ref="E30:E31" si="129">F29+1</f>
+        <f t="shared" ref="E30:E31" si="130">F29+1</f>
         <v>44904</v>
       </c>
       <c r="F30" s="64">
-        <f>E30+7</f>
+        <f t="shared" si="129"/>
         <v>44911</v>
       </c>
       <c r="G30" s="11"/>
@@ -8231,11 +8051,11 @@
         <v>0</v>
       </c>
       <c r="E31" s="64">
+        <f t="shared" si="130"/>
+        <v>44912</v>
+      </c>
+      <c r="F31" s="64">
         <f t="shared" si="129"/>
-        <v>44912</v>
-      </c>
-      <c r="F31" s="64">
-        <f>E31+7</f>
         <v>44919</v>
       </c>
       <c r="G31" s="11"/>
@@ -8415,11 +8235,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="64">
-        <f t="shared" ref="E32:E34" si="130">F31+1</f>
+        <f t="shared" ref="E32:E34" si="131">F31+1</f>
         <v>44920</v>
       </c>
       <c r="F32" s="64">
-        <f>E32+7</f>
+        <f t="shared" si="129"/>
         <v>44927</v>
       </c>
       <c r="G32" s="11"/>
@@ -8599,11 +8419,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="64">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>44928</v>
       </c>
       <c r="F33" s="64">
-        <f>E33+7</f>
+        <f t="shared" si="129"/>
         <v>44935</v>
       </c>
       <c r="G33" s="11"/>
@@ -8783,11 +8603,11 @@
         <v>0</v>
       </c>
       <c r="E34" s="64">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>44936</v>
       </c>
       <c r="F34" s="64">
-        <f>E34+7</f>
+        <f t="shared" si="129"/>
         <v>44943</v>
       </c>
       <c r="G34" s="11"/>
@@ -9324,26 +9144,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -9351,6 +9151,26 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D31">
     <cfRule type="dataBar" priority="34">
@@ -9367,15 +9187,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:FM31">
-    <cfRule type="expression" dxfId="17" priority="53">
+    <cfRule type="expression" dxfId="14" priority="53">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:FM31">
-    <cfRule type="expression" dxfId="16" priority="47">
+    <cfRule type="expression" dxfId="13" priority="47">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="48" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9394,15 +9214,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:FM32">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:FM32">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9421,15 +9241,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:FM33">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:FM33">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9448,15 +9268,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:FM35">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:FM35">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/plan of approach/Planning.xlsx
+++ b/plan of approach/Planning.xlsx
@@ -1259,6 +1259,9 @@
     <xf numFmtId="170" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1266,9 +1269,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1695,7 +1695,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,8 +1999,8 @@
   <dimension ref="A1:FM36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2050,23 +2050,23 @@
       <c r="B3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="77">
+      <c r="D3" s="76"/>
+      <c r="E3" s="74">
         <v>44805</v>
       </c>
-      <c r="F3" s="77"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:169" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -2305,12 +2305,12 @@
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
       <c r="I5" s="50">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44802</v>
@@ -4916,7 +4916,7 @@
       <c r="C14" s="42"/>
       <c r="D14" s="16">
         <f>AVERAGE(D15:D19)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E14" s="56">
         <f>E15</f>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E15" s="58">
         <f>F12+1</f>
@@ -9144,6 +9144,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -9151,26 +9171,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D31">
     <cfRule type="dataBar" priority="34">

--- a/plan of approach/Planning.xlsx
+++ b/plan of approach/Planning.xlsx
@@ -198,9 +198,6 @@
     <t>planning</t>
   </si>
   <si>
-    <t>plan of requirments</t>
-  </si>
-  <si>
     <t>feedback/improvement</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Integration submodules</t>
+  </si>
+  <si>
+    <t>plan of requirements</t>
   </si>
 </sst>
 </file>
@@ -1998,8 +1998,8 @@
   </sheetPr>
   <dimension ref="A1:FM36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>21</v>
@@ -2048,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>13</v>
@@ -3806,7 +3806,7 @@
       <c r="C8" s="41"/>
       <c r="D8" s="13">
         <f>AVERAGE(D9:D13)</f>
-        <v>0.67</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="E8" s="53">
         <f>E9</f>
@@ -3814,12 +3814,12 @@
       </c>
       <c r="F8" s="54">
         <f>F13</f>
-        <v>44823</v>
+        <v>44827</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
         <f t="shared" ref="H8:H36" si="128">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -4357,11 +4357,11 @@
     <row r="11" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34"/>
       <c r="B11" s="66" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="14">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E11" s="55">
         <f>F10</f>
@@ -4541,11 +4541,11 @@
     <row r="12" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34"/>
       <c r="B12" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="14">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="E12" s="55">
         <f>F11</f>
@@ -4725,24 +4725,24 @@
     <row r="13" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34"/>
       <c r="B13" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="14">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="E13" s="55">
         <f>E10</f>
         <v>44809</v>
       </c>
       <c r="F13" s="55">
-        <f>F12+3</f>
-        <v>44823</v>
+        <f>F12+7</f>
+        <v>44827</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11">
         <f t="shared" si="128"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -4916,7 +4916,7 @@
       <c r="C14" s="42"/>
       <c r="D14" s="16">
         <f>AVERAGE(D15:D19)</f>
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E14" s="56">
         <f>E15</f>
@@ -4924,12 +4924,12 @@
       </c>
       <c r="F14" s="57">
         <f>F19</f>
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11">
         <f t="shared" si="128"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
@@ -5096,11 +5096,11 @@
     <row r="15" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="17">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="E15" s="58">
         <f>F12+1</f>
@@ -5280,7 +5280,7 @@
     <row r="16" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34"/>
       <c r="B16" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="17">
@@ -5463,7 +5463,7 @@
     <row r="17" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34"/>
       <c r="B17" s="67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="17">
@@ -5474,13 +5474,13 @@
         <v>44838</v>
       </c>
       <c r="F17" s="58">
-        <f>E17+2</f>
-        <v>44840</v>
+        <f>E17+3</f>
+        <v>44841</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11">
         <f t="shared" si="128"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
@@ -5647,7 +5647,7 @@
     <row r="18" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34"/>
       <c r="B18" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="17">
@@ -5655,11 +5655,11 @@
       </c>
       <c r="E18" s="58">
         <f>F17</f>
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="F18" s="58">
         <f>E18+7</f>
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11">
@@ -5831,7 +5831,7 @@
     <row r="19" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34"/>
       <c r="B19" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="17">
@@ -5843,12 +5843,12 @@
       </c>
       <c r="F19" s="58">
         <f>F18+3</f>
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11">
         <f t="shared" si="128"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -6017,7 +6017,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="19">
@@ -6026,11 +6026,11 @@
       </c>
       <c r="E20" s="59">
         <f>E21</f>
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="F20" s="60">
         <f>F25</f>
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11">
@@ -6202,7 +6202,7 @@
     <row r="21" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34"/>
       <c r="B21" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="20">
@@ -6210,11 +6210,11 @@
       </c>
       <c r="E21" s="61">
         <f>F18+1</f>
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="F21" s="61">
         <f>E21+7</f>
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11">
@@ -6386,7 +6386,7 @@
     <row r="22" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="34"/>
       <c r="B22" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="20">
@@ -6394,11 +6394,11 @@
       </c>
       <c r="E22" s="61">
         <f>F21</f>
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="F22" s="61">
         <f>E22+7</f>
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11">
@@ -6570,7 +6570,7 @@
     <row r="23" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34"/>
       <c r="B23" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="20">
@@ -6578,11 +6578,11 @@
       </c>
       <c r="E23" s="61">
         <f>F22</f>
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="F23" s="61">
         <f>E23+7</f>
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11">
@@ -6754,7 +6754,7 @@
     <row r="24" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="34"/>
       <c r="B24" s="68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="20">
@@ -6762,11 +6762,11 @@
       </c>
       <c r="E24" s="61">
         <f>F23</f>
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="F24" s="61">
         <f>E24+7</f>
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11">
@@ -6938,7 +6938,7 @@
     <row r="25" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34"/>
       <c r="B25" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="20">
@@ -6946,11 +6946,11 @@
       </c>
       <c r="E25" s="61">
         <f>E23</f>
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="F25" s="61">
         <f>F24+4</f>
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="E26" s="62">
         <f>E27</f>
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="F26" s="63">
         <v>44957</v>
@@ -7141,7 +7141,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11">
         <f t="shared" si="128"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
@@ -7308,7 +7308,7 @@
     <row r="27" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
       <c r="B27" s="70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="20">
@@ -7316,11 +7316,11 @@
       </c>
       <c r="E27" s="69">
         <f>F25</f>
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="F27" s="64">
         <f t="shared" ref="F27:F34" si="129">E27+7</f>
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11">
@@ -7492,7 +7492,7 @@
     <row r="28" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="34"/>
       <c r="B28" s="70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="20">
@@ -7500,11 +7500,11 @@
       </c>
       <c r="E28" s="64">
         <f>F27+1</f>
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="F28" s="64">
         <f t="shared" si="129"/>
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11">
@@ -7676,7 +7676,7 @@
     <row r="29" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="20">
@@ -7684,11 +7684,11 @@
       </c>
       <c r="E29" s="64">
         <f>F28+1</f>
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="F29" s="64">
         <f t="shared" si="129"/>
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11">
@@ -7860,7 +7860,7 @@
     <row r="30" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="20">
@@ -7868,11 +7868,11 @@
       </c>
       <c r="E30" s="64">
         <f t="shared" ref="E30:E31" si="130">F29+1</f>
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="F30" s="64">
         <f t="shared" si="129"/>
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11">
@@ -8044,7 +8044,7 @@
     <row r="31" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34"/>
       <c r="B31" s="70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="20">
@@ -8052,11 +8052,11 @@
       </c>
       <c r="E31" s="64">
         <f t="shared" si="130"/>
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="F31" s="64">
         <f t="shared" si="129"/>
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11">
@@ -8228,7 +8228,7 @@
     <row r="32" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="34"/>
       <c r="B32" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="20">
@@ -8236,11 +8236,11 @@
       </c>
       <c r="E32" s="64">
         <f t="shared" ref="E32:E34" si="131">F31+1</f>
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="F32" s="64">
         <f t="shared" si="129"/>
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11">
@@ -8412,7 +8412,7 @@
     <row r="33" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="34"/>
       <c r="B33" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="20">
@@ -8420,11 +8420,11 @@
       </c>
       <c r="E33" s="64">
         <f t="shared" si="131"/>
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="F33" s="64">
         <f t="shared" si="129"/>
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11">
@@ -8596,7 +8596,7 @@
     <row r="34" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34"/>
       <c r="B34" s="70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="20">
@@ -8604,11 +8604,11 @@
       </c>
       <c r="E34" s="64">
         <f t="shared" si="131"/>
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="F34" s="64">
         <f t="shared" si="129"/>
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11">
@@ -8780,7 +8780,7 @@
     <row r="35" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34"/>
       <c r="B35" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="20">
@@ -8788,11 +8788,11 @@
       </c>
       <c r="E35" s="64">
         <f>E29</f>
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="F35" s="64">
         <f>F34+9</f>
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -8961,7 +8961,7 @@
     <row r="36" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="34"/>
       <c r="B36" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="20">
@@ -8969,11 +8969,11 @@
       </c>
       <c r="E36" s="64">
         <f>F35+1</f>
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="F36" s="64">
         <f>E36+4</f>
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11">
